--- a/ingesoft/static/excel/archivo.xlsx
+++ b/ingesoft/static/excel/archivo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID Exámen</t>
+          <t>ID Visita</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Entidad de salud</t>
+          <t>Establecimiento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,37 +457,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Uso del tapabocas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de ingreso</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de ingreso</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ingreso</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Nombres</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha del exámen</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Días de cuarentena</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COMPAÑIA DE MEDICINA PREPAGADA COLSANITAS S A</t>
+          <t>PepsiCo, Inc.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,42 +507,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1143878531</t>
+          <t>1339998889</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Victor Manuel</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Toro Cedeño</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>35.7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-12-03</t>
+          <t>02:38:13.203773</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Anuel</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COMPAÑIA DE MEDICINA PREPAGADA COLSANITAS S A</t>
+          <t>PepsiCo, Inc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,27 +565,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>02:40:18.030912</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Denegado</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Isabela</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Acevedo García</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Positivo</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-02</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
     </row>

--- a/ingesoft/static/excel/archivo.xlsx
+++ b/ingesoft/static/excel/archivo.xlsx
@@ -493,7 +493,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35.7</v>
+        <v>37.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>2020-12-04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>02:38:13.203773</t>
+          <t>02:45:47.400847</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -546,7 +546,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -560,16 +560,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1193474912</t>
+          <t>1339998889</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -578,22 +578,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02:40:18.030912</t>
+          <t>02:38:13.203773</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Denegado</t>
+          <t>Aceptado</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Isabela</t>
+          <t>Anuel</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Acevedo García</t>
+          <t>AA</t>
         </is>
       </c>
     </row>

--- a/ingesoft/static/excel/archivo.xlsx
+++ b/ingesoft/static/excel/archivo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID Visita</t>
+          <t>ID Exámen</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Establecimiento</t>
+          <t>Entidad de salud</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,47 +457,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Uso del tapabocas</t>
+          <t>Nombres</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Apellidos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Resultado</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Hora de ingreso</t>
+          <t>Fecha del exámen</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Ingreso</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Nombres</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Apellidos</t>
+          <t>Días de cuarentena</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PepsiCo, Inc.</t>
+          <t>COMPAÑIA DE MEDICINA PREPAGADA COLSANITAS S A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,50 +497,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1339998889</t>
+          <t>1143878531</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>37.2</v>
+          <t>Victor Manuel</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Toro Cedeño</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2020-12-04</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>02:45:47.400847</t>
+          <t>2020-12-03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Anuel</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>AA</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PepsiCo, Inc.</t>
+          <t>COMPAÑIA DE MEDICINA PREPAGADA COLSANITAS S A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,40 +542,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1339998889</t>
+          <t>1193474912</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>35.7</v>
+          <t>Isabela</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acevedo García</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02:38:13.203773</t>
+          <t>2020-12-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Anuel</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>AA</t>
+          <t>15</t>
         </is>
       </c>
     </row>

--- a/ingesoft/static/excel/archivo.xlsx
+++ b/ingesoft/static/excel/archivo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID Exámen</t>
+          <t>ID Visita</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Entidad de salud</t>
+          <t>Establecimiento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,27 +457,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Uso del tapabocas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de ingreso</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de ingreso</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ingreso</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Nombres</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha del exámen</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Días de cuarentena</t>
         </is>
       </c>
     </row>
@@ -487,7 +497,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COMPAÑIA DE MEDICINA PREPAGADA COLSANITAS S A</t>
+          <t>PepsiCo, Inc.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,37 +512,45 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13:49:39.727460</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Victor Manuel</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Toro Cedeño</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Negativo</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-03</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COMPAÑIA DE MEDICINA PREPAGADA COLSANITAS S A</t>
+          <t>PepsiCo, Inc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,32 +560,199 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1193474912</t>
+          <t>1143878531</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Isabela</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acevedo García</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>38</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>2020-12-07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-12-02</t>
+          <t>04:00:49.902337</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>Denegado</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Victor Manuel</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Toro Cedeño</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PepsiCo, Inc.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1143878531</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>06:23:13.870664</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Victor Manuel</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Toro Cedeño</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PepsiCo, Inc.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1143878531</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>39</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>06:26:09.631198</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Denegado</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Victor Manuel</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Toro Cedeño</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PepsiCo, Inc.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>987654</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>07:19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pepito</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Perez</t>
         </is>
       </c>
     </row>
